--- a/01-planning/GANTT Chart.xlsx
+++ b/01-planning/GANTT Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B55865A-093A-1644-B169-EC9A6535624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5E35BC-9B0F-AE4E-AFBF-489D9F882448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{424283AE-4C7F-2741-A4A2-8357D0D0DADD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Activity</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Define evaluation metric for low-dimensional representation.</t>
   </si>
   <si>
-    <t>Model Development &amp; Implementation</t>
-  </si>
-  <si>
     <t>Create GitHub project structure for model comparison.</t>
   </si>
   <si>
@@ -134,20 +131,61 @@
     <t>Create MSc thesis report structure.</t>
   </si>
   <si>
-    <t>Write up literature review</t>
-  </si>
-  <si>
     <t>Write up metholodogy</t>
+  </si>
+  <si>
+    <t>Write literature review</t>
+  </si>
+  <si>
+    <t>Milestone: Literature review draft completed.</t>
+  </si>
+  <si>
+    <t>Milestone: 2D shape dataset &amp; processed.</t>
+  </si>
+  <si>
+    <t>Milestone: Produced literature matrix.</t>
+  </si>
+  <si>
+    <t>Milestone: Geometry Representation techniques tested.</t>
+  </si>
+  <si>
+    <t>Model Development 
+&amp; Implementation</t>
+  </si>
+  <si>
+    <t>Report Writing &amp; Submission</t>
+  </si>
+  <si>
+    <t>Draft final dissertation, including results &amp; discussion.</t>
+  </si>
+  <si>
+    <t>Review &amp; edit final report.</t>
+  </si>
+  <si>
+    <t>Milestone: Dissertation submitted.</t>
+  </si>
+  <si>
+    <t>Milestone: Integrated geometry representation and design exploration.</t>
+  </si>
+  <si>
+    <t>Ethics approval form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +217,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -336,45 +386,301 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,20 +1015,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A2F9C1-9809-F741-B5F8-A86D3FFBB7A7}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="62.6640625" customWidth="1"/>
     <col min="3" max="26" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -760,189 +1066,189 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="6" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53"/>
+      <c r="B6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -960,23 +1266,23 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="11"/>
-    </row>
-    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="53"/>
+      <c r="B7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="21"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -990,23 +1296,23 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="11"/>
-    </row>
-    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53"/>
+      <c r="B8" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="21"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1020,23 +1326,23 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="11"/>
-    </row>
-    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1050,23 +1356,22 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53"/>
+      <c r="B10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1080,25 +1385,23 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53"/>
+      <c r="B11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="21"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1112,23 +1415,23 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53"/>
+      <c r="B12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1142,80 +1445,80 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="11"/>
-    </row>
-    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="11"/>
-    </row>
-    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="11"/>
-    </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="16"/>
+    </row>
+    <row r="15" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="36" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1234,19 +1537,19 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="11"/>
-    </row>
-    <row r="16" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1264,74 +1567,74 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="11"/>
-    </row>
-    <row r="17" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="11"/>
-    </row>
-    <row r="18" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
+    <row r="19" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="58"/>
+      <c r="B19" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1339,10 +1642,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1356,44 +1659,320 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="11"/>
-    </row>
-    <row r="20" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="58"/>
+      <c r="B20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58"/>
+      <c r="B21" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="16"/>
+    </row>
+    <row r="24" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="10"/>
+    </row>
+    <row r="26" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="26"/>
+    </row>
+    <row r="27" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="16"/>
+    </row>
+    <row r="28" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="12">
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A5:A13"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
@@ -1401,7 +1980,7 @@
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01-planning/GANTT Chart.xlsx
+++ b/01-planning/GANTT Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5E35BC-9B0F-AE4E-AFBF-489D9F882448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC1BFC-D78B-AB4B-A985-7EC8BF21B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{424283AE-4C7F-2741-A4A2-8357D0D0DADD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Activity</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>Week-5</t>
+  </si>
+  <si>
+    <t>Week-6</t>
+  </si>
+  <si>
+    <t>Week-7</t>
+  </si>
+  <si>
+    <t>Week-8</t>
   </si>
   <si>
     <t>Submit Proposal</t>
@@ -169,6 +181,51 @@
   </si>
   <si>
     <t>Ethics approval form</t>
+  </si>
+  <si>
+    <t>Week-9</t>
+  </si>
+  <si>
+    <t>Week-10</t>
+  </si>
+  <si>
+    <t>Week-11</t>
+  </si>
+  <si>
+    <t>Week-12</t>
+  </si>
+  <si>
+    <t>Week-13</t>
+  </si>
+  <si>
+    <t>Week-14</t>
+  </si>
+  <si>
+    <t>Week-15</t>
+  </si>
+  <si>
+    <t>Week-16</t>
+  </si>
+  <si>
+    <t>Week-17</t>
+  </si>
+  <si>
+    <t>Week-18</t>
+  </si>
+  <si>
+    <t>Week-19</t>
+  </si>
+  <si>
+    <t>Week-20</t>
+  </si>
+  <si>
+    <t>Week-21</t>
+  </si>
+  <si>
+    <t>Week-22</t>
+  </si>
+  <si>
+    <t>Week-23</t>
   </si>
 </sst>
 </file>
@@ -230,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -552,24 +609,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,7 +682,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1018,14 +1061,15 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="26" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1075,81 +1119,81 @@
         <v>2</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" s="45" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="P2" s="45" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="45" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="R2" s="45" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="S2" s="45" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="T2" s="45" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="U2" s="45" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="V2" s="45" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="W2" s="45" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="46" t="s">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>11</v>
+      <c r="A3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
@@ -1177,9 +1221,9 @@
       <c r="Z3" s="16"/>
     </row>
     <row r="4" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="49" t="s">
-        <v>43</v>
+      <c r="A4" s="50"/>
+      <c r="B4" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="17"/>
@@ -1207,11 +1251,11 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="11"/>
@@ -1239,9 +1283,9 @@
       <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="1"/>
@@ -1269,9 +1313,9 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="1"/>
@@ -1299,9 +1343,9 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="1"/>
@@ -1329,9 +1373,9 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="1"/>
@@ -1359,9 +1403,9 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="1"/>
@@ -1388,9 +1432,9 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="1"/>
@@ -1418,9 +1462,9 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="1"/>
@@ -1448,9 +1492,9 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="24"/>
@@ -1478,11 +1522,11 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
-        <v>18</v>
+      <c r="A14" s="53" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
@@ -1510,9 +1554,9 @@
       <c r="Z14" s="16"/>
     </row>
     <row r="15" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1540,9 +1584,9 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="36" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1570,9 +1614,9 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1600,11 +1644,11 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>37</v>
+      <c r="A18" s="56" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1632,9 +1676,9 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1662,9 +1706,9 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1692,9 +1736,9 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1722,9 +1766,9 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1752,11 +1796,11 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
-        <v>26</v>
+      <c r="A23" s="51" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1784,9 +1828,9 @@
       <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1814,9 +1858,9 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1844,9 +1888,9 @@
       <c r="Z25" s="10"/>
     </row>
     <row r="26" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -1874,11 +1918,11 @@
       <c r="Z26" s="26"/>
     </row>
     <row r="27" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
-        <v>38</v>
+      <c r="A27" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1906,9 +1950,9 @@
       <c r="Z27" s="16"/>
     </row>
     <row r="28" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1936,9 +1980,9 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>

--- a/01-planning/GANTT Chart.xlsx
+++ b/01-planning/GANTT Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuahellewell/Desktop/02-msc/01-modules/MSc Project - 771952/01-planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC1BFC-D78B-AB4B-A985-7EC8BF21B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3956B19-B397-8C44-AB7D-F7101FEB5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{424283AE-4C7F-2741-A4A2-8357D0D0DADD}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{424283AE-4C7F-2741-A4A2-8357D0D0DADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1061,15 +1061,15 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:Z2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
